--- a/results/led_weight_strategy.xlsx
+++ b/results/led_weight_strategy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>w_CW</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weights_sum</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,19 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1153297767113741</v>
+        <v>0.3165564160448779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06445240646119579</v>
+        <v>0.1854817348946315</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2888477377005553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08366129168478666</v>
+        <v>9.567538485372582e-19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1586965674547443</v>
+        <v>0.2091141113599354</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,19 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1128331034689024</v>
+        <v>0.316645485360801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06385265959349046</v>
+        <v>0.1866084463499117</v>
       </c>
       <c r="E3" t="n">
-        <v>1.991263129254917e-17</v>
+        <v>0.2913252587271125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08333212759256621</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1556792496692119</v>
+        <v>0.2054208095621748</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -530,19 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.110334842614981</v>
+        <v>0.3169524655142798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06325090572783328</v>
+        <v>0.1876799071986364</v>
       </c>
       <c r="E4" t="n">
+        <v>0.2939224259969638</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.08300080916519922</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.1526663793003401</v>
+        <v>0.2014452012901203</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -555,19 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1078369425885518</v>
+        <v>0.3170750509795199</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06264890502528771</v>
+        <v>0.1888675856378773</v>
       </c>
       <c r="E5" t="n">
+        <v>0.2964374645113209</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.08266771434765242</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.1496550208722449</v>
+        <v>0.1976198988712819</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -580,19 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1195807952682435</v>
+        <v>0.3163642994388839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06534566830109857</v>
+        <v>0.183636006328936</v>
       </c>
       <c r="E6" t="n">
-        <v>1.218150479263001e-18</v>
+        <v>0.2846210924984253</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08424052036379392</v>
+        <v>1.756924105272949e-19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.163587236970136</v>
+        <v>0.2153786017337548</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -605,19 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1312853468751482</v>
+        <v>0.3170788595897909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067989679960378</v>
+        <v>0.1795539643317242</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2704075878309778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08595616650877749</v>
+        <v>0.003457966220805</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1773633474031046</v>
+        <v>0.2295016220267022</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -630,19 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.143001075939035</v>
+        <v>0.3192268098992657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07062887914641797</v>
+        <v>0.1764303245133659</v>
       </c>
       <c r="E8" t="n">
-        <v>3.46342109340174e-17</v>
+        <v>0.2539107538176203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08750645283220782</v>
+        <v>0.01007283676216772</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1913066283294984</v>
+        <v>0.2403592750075804</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1547919970522096</v>
+        <v>0.3213186771879721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0734413057751378</v>
+        <v>0.1729507626727907</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.237648670942005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08900110680334952</v>
+        <v>0.01678567909712235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2053498298987208</v>
+        <v>0.2512962101001098</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1434152746644901</v>
+        <v>0.3196836644856808</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07030756685569609</v>
+        <v>0.1760864864404241</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.2539380919616259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08725010134155821</v>
+        <v>0.009833768800273167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1914462931779988</v>
+        <v>0.240457988311996</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -705,19 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1321076931021448</v>
+        <v>0.3179195285444645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06734680921843339</v>
+        <v>0.1789539707459669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.2704269033671748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08544744205126638</v>
+        <v>0.002937784246098052</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1776349384335816</v>
+        <v>0.2297618130962958</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -730,19 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1208110280909578</v>
+        <v>0.3179814836043778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06436852575033485</v>
+        <v>0.182886372220342</v>
       </c>
       <c r="E12" t="n">
+        <v>0.2841158819943042</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.08349090440663078</v>
-      </c>
       <c r="G12" t="n">
-        <v>0.1639798634196207</v>
+        <v>0.2150162621809761</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -755,19 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1094765382910402</v>
+        <v>0.3191859698174769</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06134413788735137</v>
+        <v>0.1879871993090917</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.2957011350809635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0816620852914272</v>
+        <v>8.925116717597622e-21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1501873176407012</v>
+        <v>0.197125695792468</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -780,19 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.07487990765975849</v>
+        <v>0.340752926976379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04346404591683482</v>
+        <v>0.2048953042554761</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3362085923508245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06140977874914397</v>
+        <v>1.076627968799742e-18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1015638561281933</v>
+        <v>0.1181431764173204</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -805,19 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04029650505506634</v>
+        <v>0.3624064418942436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02556916730565583</v>
+        <v>0.2223193584831682</v>
       </c>
       <c r="E15" t="n">
-        <v>9.84455572616838e-17</v>
+        <v>0.3761637047938184</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04124923727199765</v>
+        <v>8.119771844497819e-18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05283850961620294</v>
+        <v>0.0391104948287699</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -830,19 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00564902294031311</v>
+        <v>0.3811247796018275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007726384416160283</v>
+        <v>0.2187886521493667</v>
       </c>
       <c r="E16" t="n">
-        <v>1.646171220362057e-16</v>
+        <v>0.4000865682488058</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02092600289603259</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004267518592604701</v>
+        <v>9.166603602645651e-18</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
